--- a/14-jointplot/14-jointplot.xlsx
+++ b/14-jointplot/14-jointplot.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\15-bubbleplot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\14-jointplot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD81826C-5148-420C-952F-5423BE604E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1DEBDE-E622-4FD4-B6CC-720C4D8544A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="3">
+  <futureMetadata name="XLRICHVALUE" count="2">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -62,28 +62,18 @@
         </ext>
       </extLst>
     </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="4"/>
-        </ext>
-      </extLst>
-    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="3">
+  <valueMetadata count="2">
     <bk>
       <rc t="2" v="0"/>
     </bk>
     <bk>
       <rc t="2" v="1"/>
-    </bk>
-    <bk>
-      <rc t="2" v="2"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -92,7 +82,7 @@
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
+    <initialization userModified="1">
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -111,9 +101,6 @@
       <code>mpg_df = xl(%P2%, headers=True)</code>
     </pythonScript>
     <pythonScript>
-      <code>sns.scatterplot(data=mpg_df, x='weight', y='mpg', hue='origin', size='cylinders')</code>
-    </pythonScript>
-    <pythonScript>
       <code>sns.scatterplot(data=mpg_df, x='weight', y='mpg', hue='origin', size='acceleration')</code>
     </pythonScript>
   </pythonScripts>
@@ -121,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="11">
   <si>
     <t>mpg</t>
   </si>
@@ -155,15 +142,12 @@
   <si>
     <t>europe</t>
   </si>
-  <si>
-    <t xml:space="preserve">https://x.com/i/grok/share/y80RUr9UC2TW0yLCdQsm35lCN </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -294,14 +278,6 @@
     <font>
       <sz val="16"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="16"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -604,7 +580,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -647,13 +623,11 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -687,7 +661,6 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -709,60 +682,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>518932</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>121166</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E8C0E3-3DA2-0DA0-D982-FD963098D795}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-          <a:extLst>
-            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J6"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10439400" y="1504950"/>
-          <a:ext cx="5148082" cy="3950216"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -921,7 +840,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
   <rv s="0">
     <v>0</v>
   </rv>
@@ -942,11 +861,6 @@
   </rv>
   <rv s="3">
     <v>0</v>
-    <v>9</v>
-    <v>Image generated by Python</v>
-  </rv>
-  <rv s="3">
-    <v>1</v>
     <v>9</v>
     <v>Image generated by Python</v>
   </rv>
@@ -1023,7 +937,6 @@
 <file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
-  <rel r:id="rId2"/>
 </richValueRels>
 </file>
 
@@ -1364,7 +1277,7 @@
   <dimension ref="A1:J399"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
@@ -1401,8 +1314,9 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
+      <c r="J1" t="e" cm="1" vm="1">
+        <f t="array" ref="J1">_xlfn._xlws.PY(0,1,mpg[#All])</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.65">
@@ -1456,10 +1370,6 @@
       <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" t="e" cm="1" vm="1">
-        <f t="array" ref="J3">_xlfn._xlws.PY(0,1,mpg[#All])</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A4">
@@ -1538,10 +1448,6 @@
       <c r="H6" t="s">
         <v>8</v>
       </c>
-      <c r="J6" t="e" cm="1" vm="2">
-        <f t="array" ref="J6">_xlfn._xlws.PY(1,0)</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A7">
@@ -2527,8 +2433,8 @@
       <c r="H44" t="s">
         <v>8</v>
       </c>
-      <c r="J44" t="e" cm="1" vm="3">
-        <f t="array" ref="J44">_xlfn._xlws.PY(2,0)</f>
+      <c r="J44" t="e" cm="1" vm="2">
+        <f t="array" ref="J44">_xlfn._xlws.PY(1,0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11748,13 +11654,9 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="J1" r:id="rId1" xr:uid="{E0240C43-3CC2-4D22-A006-B03AA4B733CD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>